--- a/applications/us_states/Nashville_validation.xlsx
+++ b/applications/us_states/Nashville_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\covasim-australia\applications\us_states\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A8E0DC-2FF0-444B-A449-E55EEB99A5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D72296-DAB6-4EEB-A1D7-159D362B10DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="5460" windowWidth="4275" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2310" yWindow="6825" windowWidth="4275" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,16 +517,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2030</v>
+        <v>2846</v>
       </c>
       <c r="B3">
-        <v>2400</v>
+        <v>3716</v>
       </c>
       <c r="C3">
-        <v>2910</v>
+        <v>4611</v>
       </c>
       <c r="D3">
-        <v>9615</v>
+        <v>9083</v>
       </c>
       <c r="E3">
         <v>3795</v>
@@ -541,16 +541,16 @@
         <v>10125</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K3">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>41</v>
@@ -567,8 +567,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>